--- a/medicine/Psychotrope/Brauerei_Gustav_Schraube/Brauerei_Gustav_Schraube.xlsx
+++ b/medicine/Psychotrope/Brauerei_Gustav_Schraube/Brauerei_Gustav_Schraube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Gustav Schraube, initialement appelée Braunbierbrauerei und Branntweinbrennerei (à partir de 1795), est une brasserie de Pritzwalk.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 11 avril 1795, une brasserie de bière brune et une distillerie de brandy sont construites sur la propriété du Marktstraße 58.
 Les réformes prussiennes apportent des droits d'autonomie avec le code de la ville de 1808 et la liberté économique en 1810.
@@ -550,7 +564,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>À partir de 1949
 Pritzwalker Bockbier hell und dunkel, Schraube Brauerei Pilsner, Karamellbier, Doppelmalzbier, Weizenmalzbier, „Hell“, Schrauben’s Einfachbier, Münchener, Feinstes Helles Tafelbier
